--- a/public/files/teamTime2014.xlsx
+++ b/public/files/teamTime2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21228" windowHeight="8927"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="日程" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t>第一天赛程（8：15开球仪式）</t>
   </si>
@@ -282,12 +282,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -554,34 +548,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -615,9 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -722,15 +695,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -742,7 +798,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1029,6 +1085,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1061,493 +1118,488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="15.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="15.3796296296296" customWidth="1"/>
-    <col min="6" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="15.3796296296296" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="12.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="18.75">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="21.6" spans="1:13">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="21.6" spans="1:13">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="21.6" spans="1:11">
-      <c r="A5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="21.6" spans="1:11">
-      <c r="A6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="K8" s="48"/>
-    </row>
-    <row r="9" ht="17.4" spans="1:11">
-      <c r="A9" s="15" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75">
+      <c r="A9" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="16"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="49"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="19" t="s">
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="22" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="J13" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="17" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="16" t="s">
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="4" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="28" t="s">
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="4" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="14"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="38"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="38"/>
+      <c r="H18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H19:I19"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
